--- a/00.기획서/221020_SE 요청 리스트_V100.xlsx
+++ b/00.기획서/221020_SE 요청 리스트_V100.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sound" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +23,120 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>KGA_23</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드라이브</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> bgm </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">확인
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://drive.google.com/drive/folders/1CoOqTQX4HOeDsRse5iIEylo1-Pdbxbsr</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>항목</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,10 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">* 노래가 끝나는건 무조건 fade out 사라지고 다른 노래 시작하면 fade in </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>발랄한 느낌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,15 +230,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SOUND EFFECT 요청 리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>* 인게임 브금과 VPS 연출 노래는 겹치지 않는다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특별 VPS 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 전용 브금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.wav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame.wav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walking.wav</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뚀로로롱 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 화면 이탈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 노래가 끝나는건 무조건 1초간 fade out 사라지고 다른 노래 시작하면 1초간 fade in 진행한다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUND 요청 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +324,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -201,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,35 +388,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,172 +753,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="3" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>25</v>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
@@ -713,5 +968,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>